--- a/Doc/1. 프로토콜/PC연동_프로토콜_V4_251114.xlsx
+++ b/Doc/1. 프로토콜/PC연동_프로토콜_V4_251114.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Water\2025\WORKS\2025_Tech_PC_Program\Doc\1. 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B5D5A-114B-4183-BBD2-15CC9E2ABB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A7111-5B4D-490D-9C80-C5C9A12A6DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-52" windowWidth="21795" windowHeight="13694" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{E8FC57F0-0C50-400C-865C-77A5DB099951}"/>
   </bookViews>
   <sheets>
     <sheet name="냉동검토용 프로토콜" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="161">
   <si>
     <t>STX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제빙 동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스윙바 ON 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,26 +141,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TARGET TEMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET TEMP (FIRST)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRAY POSITION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제빙시간(ms) 상위 1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제빙시간(ms) 하위 1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입수온도값</t>
   </si>
   <si>
@@ -222,9 +202,6 @@
   <si>
     <t>※ PC는 MAIN으로 데이터를 변경요청 이벤트가 있을 때 1회 보낸다</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉각운전 변경 (PC ↔ 메인)</t>
   </si>
   <si>
     <t>제빙운전 변경 (PC ↔ 메인)</t>
@@ -716,6 +693,20 @@
   </si>
   <si>
     <t>냉각제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉각운전 변경 (PC → 메인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET TEMP
+타겟 탱크내부온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET TEMP (FIRST)
+타겟 탱크내부온도 (첫)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,46 +985,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1393,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EE35C0-487B-4D06-A0DE-831179CCD425}">
   <dimension ref="B1:BM13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="2" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -1428,13 +1419,13 @@
     </row>
     <row r="3" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>7</v>
@@ -1449,339 +1440,376 @@
         <v>12</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+    </row>
+    <row r="4" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-    </row>
-    <row r="4" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <v>0</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>34</v>
+      <c r="E4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
-        <v>163</v>
+      <c r="B6" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="36">
-        <v>4</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>34</v>
+      <c r="H6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="36">
-        <v>7</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="31">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="28" t="s">
+      <c r="I8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="28" t="s">
-        <v>17</v>
+      <c r="J8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="36">
+        <v>41</v>
+      </c>
+      <c r="D10" s="31">
         <v>4</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="27">
+        <v>93</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="F12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="30">
-        <v>93</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="I12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="29" t="s">
+      <c r="K12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:65" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="M3:BM3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F12:F13"/>
@@ -1797,44 +1825,7 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="M3:BM3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,7 +1857,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1903,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9"/>
     </row>
@@ -1912,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -1927,25 +1918,25 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>4</v>
@@ -1959,22 +1950,22 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2010,21 +2001,21 @@
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -2032,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2047,12 +2038,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
@@ -2060,12 +2051,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -2074,12 +2065,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
@@ -2087,12 +2078,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
@@ -2100,12 +2091,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
@@ -2113,12 +2104,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
@@ -2126,12 +2117,12 @@
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
@@ -2139,12 +2130,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
@@ -2152,12 +2143,12 @@
         <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
@@ -2165,12 +2156,12 @@
         <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
@@ -2178,12 +2169,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
@@ -2191,12 +2182,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
@@ -2204,13 +2195,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -2219,10 +2210,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="38"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
@@ -2230,10 +2221,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="38"/>
-      <c r="E19" s="36"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="20">
@@ -2241,10 +2232,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D20" s="38"/>
-      <c r="E20" s="36"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
@@ -2252,10 +2243,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="36"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
@@ -2263,12 +2254,12 @@
         <v>19</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
@@ -2276,10 +2267,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D23" s="38"/>
-      <c r="E23" s="36"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
@@ -2287,10 +2278,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24" s="38"/>
-      <c r="E24" s="36"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
@@ -2298,10 +2289,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
@@ -2309,10 +2300,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="20">
@@ -2320,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D27" s="38"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
@@ -2331,10 +2322,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28" s="38"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
@@ -2342,10 +2333,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D29" s="38"/>
-      <c r="E29" s="36"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
@@ -2353,10 +2344,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D30" s="38"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="20">
@@ -2364,10 +2355,10 @@
         <v>28</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D31" s="38"/>
-      <c r="E31" s="36"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="20">
@@ -2375,10 +2366,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D32" s="38"/>
-      <c r="E32" s="36"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="20">
@@ -2386,10 +2377,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D33" s="38"/>
-      <c r="E33" s="36"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="20">
@@ -2397,10 +2388,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D34" s="38"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="20">
@@ -2408,10 +2399,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D35" s="38"/>
-      <c r="E35" s="36"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="20">
@@ -2419,10 +2410,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D36" s="38"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="20">
@@ -2430,12 +2421,12 @@
         <v>34</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="20">
@@ -2443,12 +2434,12 @@
         <v>35</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="20">
@@ -2456,12 +2447,12 @@
         <v>36</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
@@ -2469,12 +2460,12 @@
         <v>37</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="20">
@@ -2482,12 +2473,12 @@
         <v>38</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E41" s="31"/>
     </row>
     <row r="42" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="20">
@@ -2495,13 +2486,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>157</v>
+        <v>125</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -2510,12 +2501,12 @@
         <v>40</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="36"/>
+        <v>125</v>
+      </c>
+      <c r="E43" s="31"/>
     </row>
     <row r="1048576" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1048576" s="23"/>
@@ -2562,21 +2553,21 @@
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="66" x14ac:dyDescent="0.3">
@@ -2584,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>82</v>
+        <v>146</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="66" x14ac:dyDescent="0.3">
@@ -2599,12 +2590,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="28"/>
+        <v>146</v>
+      </c>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="20">
@@ -2612,12 +2603,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="20">
@@ -2625,12 +2616,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="20">
@@ -2638,12 +2629,12 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="20">
@@ -2651,12 +2642,12 @@
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="20">
@@ -2664,12 +2655,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="28"/>
+        <v>83</v>
+      </c>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="20">
@@ -2677,12 +2668,12 @@
         <v>8</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
@@ -2690,12 +2681,12 @@
         <v>9</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="20">
@@ -2703,12 +2694,12 @@
         <v>10</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="20">
@@ -2716,12 +2707,12 @@
         <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="20">
@@ -2729,12 +2720,12 @@
         <v>12</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="20">
@@ -2742,12 +2733,12 @@
         <v>13</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
@@ -2755,12 +2746,12 @@
         <v>14</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="20">
@@ -2768,12 +2759,12 @@
         <v>15</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="20">
@@ -2781,13 +2772,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2796,12 +2787,12 @@
         <v>17</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="20">
@@ -2809,12 +2800,12 @@
         <v>18</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="20">
@@ -2822,12 +2813,12 @@
         <v>19</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="20">
@@ -2835,12 +2826,12 @@
         <v>20</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="20">
@@ -2848,12 +2839,12 @@
         <v>21</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="20">
@@ -2861,12 +2852,12 @@
         <v>22</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="20">
@@ -2874,12 +2865,12 @@
         <v>23</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="20">
@@ -2887,12 +2878,12 @@
         <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="20">
@@ -2900,12 +2891,12 @@
         <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="20">
@@ -2913,12 +2904,12 @@
         <v>26</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="20">
@@ -2926,13 +2917,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
@@ -2941,14 +2932,14 @@
         <v>28</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E31" s="44"/>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -2957,10 +2948,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E32" s="44"/>
     </row>
@@ -2970,10 +2961,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E33" s="44"/>
     </row>
@@ -2983,10 +2974,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E34" s="44"/>
     </row>
@@ -2996,10 +2987,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E35" s="44"/>
     </row>
@@ -3009,10 +3000,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E36" s="44"/>
     </row>
@@ -3022,10 +3013,10 @@
         <v>34</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E37" s="44"/>
     </row>
@@ -3035,10 +3026,10 @@
         <v>35</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E38" s="44"/>
     </row>
@@ -3048,10 +3039,10 @@
         <v>36</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E39" s="44"/>
     </row>
@@ -3061,10 +3052,10 @@
         <v>37</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E40" s="44"/>
     </row>
@@ -3074,10 +3065,10 @@
         <v>38</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E41" s="44"/>
     </row>
@@ -3087,10 +3078,10 @@
         <v>39</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E42" s="44"/>
     </row>
@@ -3100,10 +3091,10 @@
         <v>40</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E43" s="44"/>
     </row>
@@ -3113,10 +3104,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E44" s="44"/>
     </row>
@@ -3126,10 +3117,10 @@
         <v>42</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E45" s="44"/>
     </row>
@@ -3139,10 +3130,10 @@
         <v>43</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E46" s="44"/>
     </row>
@@ -3152,10 +3143,10 @@
         <v>44</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E47" s="44"/>
     </row>
@@ -3165,10 +3156,10 @@
         <v>45</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E48" s="44"/>
     </row>
@@ -3178,12 +3169,12 @@
         <v>46</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="20">
@@ -3191,11 +3182,11 @@
         <v>47</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D50" s="20"/>
-      <c r="E50" s="28" t="s">
-        <v>100</v>
+      <c r="E50" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
@@ -3204,12 +3195,12 @@
         <v>48</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="20">
@@ -3217,12 +3208,12 @@
         <v>49</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="20">
@@ -3230,12 +3221,12 @@
         <v>50</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B54" s="20">
@@ -3243,12 +3234,12 @@
         <v>51</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="28"/>
+        <v>131</v>
+      </c>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="20">
@@ -3256,12 +3247,12 @@
         <v>52</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="20">
@@ -3269,12 +3260,12 @@
         <v>53</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="20">
@@ -3282,12 +3273,12 @@
         <v>54</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="20">
@@ -3295,12 +3286,12 @@
         <v>55</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="20">
@@ -3308,12 +3299,12 @@
         <v>56</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="20">
@@ -3321,12 +3312,12 @@
         <v>57</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="20">
@@ -3334,12 +3325,12 @@
         <v>58</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="20">
@@ -3347,12 +3338,12 @@
         <v>59</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="20">
@@ -3360,12 +3351,12 @@
         <v>60</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="20">
@@ -3373,12 +3364,12 @@
         <v>61</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="20">
@@ -3386,13 +3377,13 @@
         <v>62</v>
       </c>
       <c r="C65" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="31" t="s">
         <v>130</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="36" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="33" x14ac:dyDescent="0.3">
@@ -3401,12 +3392,12 @@
         <v>63</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66" s="36"/>
+        <v>125</v>
+      </c>
+      <c r="E66" s="31"/>
     </row>
     <row r="67" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B67" s="20">
@@ -3414,12 +3405,12 @@
         <v>64</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="36"/>
+        <v>128</v>
+      </c>
+      <c r="E67" s="31"/>
     </row>
     <row r="68" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B68" s="20">
@@ -3427,12 +3418,12 @@
         <v>65</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E68" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="E68" s="31"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="20">
@@ -3440,12 +3431,12 @@
         <v>66</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E69" s="31"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="20">
@@ -3453,12 +3444,12 @@
         <v>67</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="20">
@@ -3466,12 +3457,12 @@
         <v>68</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E71" s="31"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="20">
@@ -3479,12 +3470,12 @@
         <v>69</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E72" s="31"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="20">
@@ -3492,12 +3483,12 @@
         <v>70</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="36"/>
+        <v>29</v>
+      </c>
+      <c r="E73" s="31"/>
     </row>
     <row r="74" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B74" s="20">
@@ -3505,13 +3496,13 @@
         <v>71</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
@@ -3520,7 +3511,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="14"/>
@@ -3531,7 +3522,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="14"/>
@@ -3542,7 +3533,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="14"/>
@@ -3553,7 +3544,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="14"/>
@@ -3564,7 +3555,7 @@
         <v>76</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="14"/>
@@ -3614,184 +3605,184 @@
         <v>2</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="28"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="28"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="28"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="28"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="28"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="28"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="28"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="28"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="28"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="28"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="28"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="28"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="28"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="20"/>
@@ -3799,7 +3790,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="44"/>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
@@ -3908,97 +3899,97 @@
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="28"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="28"/>
+      <c r="E51" s="33"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
-      <c r="E52" s="28"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="33"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="28"/>
+      <c r="E54" s="33"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="28"/>
+      <c r="E55" s="33"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="28"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="28"/>
+      <c r="E57" s="33"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="28"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="28"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="28"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="28"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="28"/>
+      <c r="E62" s="33"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="28"/>
+      <c r="E63" s="33"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="28"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="20"/>
